--- a/SP_Sklad/TempLate/MatMove.xlsx
+++ b/SP_Sklad/TempLate/MatMove.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -19,12 +19,12 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
@@ -98,12 +98,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -732,7 +732,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -767,7 +766,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -943,16 +941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -977,7 +975,7 @@
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1">
       <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +998,7 @@
       <c r="S1" s="38"/>
       <c r="T1" s="38"/>
     </row>
-    <row r="2" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="6.75" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1021,7 +1019,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16.5" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1044,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1069,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1094,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16.5" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1121,8 +1119,8 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
+    <row r="8" spans="1:20" ht="17.25" customHeight="1">
       <c r="B8" s="37" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1147,7 @@
       </c>
       <c r="T8" s="42"/>
     </row>
-    <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="32.25" customHeight="1">
       <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
@@ -1174,9 +1172,8 @@
       <c r="O9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="14" t="e">
-        <f>"К-сть, "&amp;MatList_MsrName</f>
-        <v>#NAME?</v>
+      <c r="P9" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>10</v>
@@ -1191,7 +1188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="B10" s="32">
         <v>1</v>
       </c>
@@ -1232,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="13.5" customHeight="1">
       <c r="B11" s="34" t="e">
         <f>IF(E11 &lt; 0,CONCATENATE("("&amp;D11,")  &lt;-- видаток"),CONCATENATE("("&amp;D11,")  прибуток --&gt;"))</f>
         <v>#NAME?</v>
@@ -1304,7 +1301,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="13.5" customHeight="1">
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1337,7 +1334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="13.5" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1371,7 +1368,7 @@
         <v>sum</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="13.5" customHeight="1">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1406,7 +1403,7 @@
         <v>sum</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="13.5" customHeight="1">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>

--- a/SP_Sklad/TempLate/MatMove.xlsx
+++ b/SP_Sklad/TempLate/MatMove.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -19,7 +19,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1231,7 +1231,7 @@
     </row>
     <row r="11" spans="1:20" ht="13.5" customHeight="1">
       <c r="B11" s="34" t="e">
-        <f>IF(E11 &lt; 0,CONCATENATE("("&amp;D11,")  &lt;-- видаток"),CONCATENATE("("&amp;D11,")  прибуток --&gt;"))</f>
+        <f>MatList_TurnDescription</f>
         <v>#NAME?</v>
       </c>
       <c r="C11" s="35"/>
